--- a/data_entry.xlsx
+++ b/data_entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,6 +633,122 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ayman</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>abdullah</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>khaled</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>suliman</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>yaser</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_entry.xlsx
+++ b/data_entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +749,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mustafa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
